--- a/source/DataWarehouse/source-target.xlsx
+++ b/source/DataWarehouse/source-target.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levente\Documents\Subjects\documents\semester 4\SEP4\Project\source\DataWarehouse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\sep4data\SEP4_Data\source\DataWarehouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B91F42-A645-491C-8613-A94804CBF9EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011CCD7A-D51E-4E0A-9DCF-50808B5152A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="50">
   <si>
     <t>Column</t>
   </si>
@@ -36,27 +36,183 @@
     <t>Table</t>
   </si>
   <si>
+    <t>Target</t>
+  </si>
+  <si>
     <t>Source</t>
-  </si>
-  <si>
-    <t>Target</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>_mushroom_type</t>
+  </si>
+  <si>
+    <t>mushroom_name</t>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dim_mushroom</t>
+  </si>
+  <si>
+    <t>mushroom_genus</t>
+  </si>
+  <si>
+    <t>_sensor_entry</t>
+  </si>
+  <si>
+    <t>air_temperature</t>
+  </si>
+  <si>
+    <t>real</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dim_sensor_entry</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>air_humidity</t>
+  </si>
+  <si>
+    <t>air_co2</t>
+  </si>
+  <si>
+    <t>desired_air_temperature</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>desired_air_humidity</t>
+  </si>
+  <si>
+    <t>desired_air_co2</t>
+  </si>
+  <si>
+    <t>ambient_air_temperature</t>
+  </si>
+  <si>
+    <t>ambient_air_humidity</t>
+  </si>
+  <si>
+    <t>ambient_air_co2</t>
+  </si>
+  <si>
+    <t>specimen_key</t>
+  </si>
+  <si>
+    <t>entry_time</t>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>_status_entry</t>
+  </si>
+  <si>
+    <t>dim_status_entry</t>
+  </si>
+  <si>
+    <t>_mushroom_stage</t>
+  </si>
+  <si>
+    <t>stage_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mushroom_stage</t>
+  </si>
+  <si>
+    <t>dim_elapsed_time</t>
+  </si>
+  <si>
+    <t>week</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>day</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hour</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>minute</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>second</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dim_calendar</t>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>month</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>season</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>week_No</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>_specimen</t>
+  </si>
+  <si>
+    <t>fact_specimen</t>
+  </si>
+  <si>
+    <t>active</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>planted_date</t>
+  </si>
+  <si>
+    <t>planted_date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>discarded_date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -64,9 +220,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,14 +258,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -377,32 +548,32 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.875" customWidth="1"/>
+    <col min="5" max="5" width="32.125" customWidth="1"/>
+    <col min="6" max="6" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -422,321 +593,694 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25"/>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26"/>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27"/>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28"/>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29"/>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32"/>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33"/>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34"/>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36"/>
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:6">
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -744,132 +1288,133 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:6">
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:6">
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:6">
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
